--- a/yigittozdemir/evidence.xlsx
+++ b/yigittozdemir/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/778f0630af30ae08/Masaüstü/nodes/cosmos/GOn/velierken719@gmail.com/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{2E1E92BD-F059-4ABE-89E5-D074ADB24080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76FA95F3-BA2B-449D-B60A-6EBDA4603979}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{2E1E92BD-F059-4ABE-89E5-D074ADB24080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B8AF462-50FF-4F86-B7EB-1BD0EC972E37}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="777" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11295" tabRatio="777" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="86">
   <si>
     <t>TxHash</t>
   </si>
@@ -91,21 +91,12 @@
     <t>none</t>
   </si>
   <si>
-    <t>bus1</t>
-  </si>
-  <si>
-    <t>juno154ar559vn4dz3rguylw9vw3qm6rhmcp3a2ykfcxk9rsewz2v7crqxpuw55</t>
-  </si>
-  <si>
     <t>uni-6</t>
   </si>
   <si>
     <t>gon-flixnet-1</t>
   </si>
   <si>
-    <t>5DC23F7EA03CCADBB815BC8E4B103991EEA0764A9ADE4754D2C2CD88EF38C7B4</t>
-  </si>
-  <si>
     <t>gon-irishub-1</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
     <t>uptick_7000-2</t>
   </si>
   <si>
-    <t>gorbacov</t>
-  </si>
-  <si>
     <t>veera#4625</t>
   </si>
   <si>
@@ -136,181 +124,184 @@
     <t>uptick1p7he7ex0mcjeh9d552s77zj6yade93xx2tq7u9</t>
   </si>
   <si>
-    <t>2BE6125378436C2ECBA58E1405AE001F88C5ED55A1260FE70926F8686B9B177D</t>
-  </si>
-  <si>
-    <t>grb</t>
-  </si>
-  <si>
-    <t>kml01</t>
-  </si>
-  <si>
-    <t>kml02</t>
-  </si>
-  <si>
-    <t>CA35653A518AA31D921E8F8BEE3AB865B3DB766ABDB1C78A2314094E399A6761</t>
-  </si>
-  <si>
-    <t>7875E90546415E1711C4218C00030061A85FE28B78B0C92BD9B38D59637C5813</t>
-  </si>
-  <si>
-    <t>juno1stv6sk0mvku34fj2mqrlyru6683866n306mfv52tlugtl322zmks26kg7a</t>
-  </si>
-  <si>
-    <t>ibc/074EEBB6993F50577D0981E2AA75BB59B1C77DDE619F034D6544D6C47CD0F4A5</t>
-  </si>
-  <si>
-    <t>C22B5E51A141F6E0C60F233637D2F9A780B33DB1619A119E3AAF37AF44686514</t>
-  </si>
-  <si>
-    <t>223867D55CE0CF9B119A797245C2065056E31836DFC138E8426FA350150E1EC4</t>
-  </si>
-  <si>
-    <t>281F03DC67FC97E8C290D6C46DA413CDE72374D25043E66E857917C1A55DAAC9</t>
-  </si>
-  <si>
-    <t>ibc/3C71FA26C4AAFB178EFA4271983145D425296EEEA4DC9F01C61FC83576EBDCB9</t>
-  </si>
-  <si>
-    <t>kml007</t>
-  </si>
-  <si>
-    <t>ibc/7E0E14972E5F21F6D3606107452BD75B3B94FFFB11125BA7940D389C73BE63E8</t>
-  </si>
-  <si>
-    <t>kml008</t>
-  </si>
-  <si>
-    <t>ibc/AF1BDA355FD49E6148741078EAAADB0EF247FFDACDDABB54BC7DA08B41BEC50C</t>
-  </si>
-  <si>
-    <t>kml009</t>
-  </si>
-  <si>
-    <t>ibc/796B217818330F14D3409CED83A66E3A1850692FEEFB9190514FDC46306F2770</t>
-  </si>
-  <si>
-    <t>kml010</t>
-  </si>
-  <si>
-    <t>ibc/CE4C4279F97248195B00E7C9C83C327775268635D0F22734CC96946E81110B96</t>
-  </si>
-  <si>
-    <t>kml011</t>
-  </si>
-  <si>
-    <t>ibc/A365C83C97A56A02F2A25A4A555B5536F727F0A3F47CCB801A6A5A9DE871CC72</t>
-  </si>
-  <si>
-    <t>kml012</t>
-  </si>
-  <si>
-    <t>9728E45651EEC0556C24EA258BAA57AEAF9B20E590CF5B92094DC7FE14B1B7F4</t>
-  </si>
-  <si>
-    <t>EA9FC890C639EBCAB16271E17D31D24C4AD8E328632EA476425263850A9C7F9A</t>
-  </si>
-  <si>
-    <t>D8A3593F8F5534EFAD9D77E6AF2235E5ADBC38EF65574AB2E745106C1068EF87</t>
-  </si>
-  <si>
-    <t>913B0B82BAA6D8A9C5B9ECFE47E9D46FA1629B98A09C9DC443BEF78D2F953458</t>
-  </si>
-  <si>
-    <t>D06DB1DF71FDD4DCAABF73F1FB27905061ACAFC8B62708C2B2778747B584EF9C</t>
-  </si>
-  <si>
-    <t>D9AF8A311717AE0AC2CD2951C991A05AD413B14FBE9F57C2890E36C299EF14E5</t>
-  </si>
-  <si>
-    <t>630DF9FE473112958FE95B5D752F11D5CD2F259DA106E0D0AEA01D6D2C054578</t>
-  </si>
-  <si>
-    <t>CEB7C796ED0A5020336C78BCBBE91738E06BFDFAC6BDEC76592AEE98F3198BEA</t>
-  </si>
-  <si>
-    <t>9F6E0B4B75036E99B804FDD490AEA33AC7E5494F4B8569E35E985DF4402194E4</t>
-  </si>
-  <si>
-    <t>0E83469D790B2A4AF734A62C888020F74A774BDDCFB0118FFCA744D38700B5D1</t>
-  </si>
-  <si>
-    <t>C90296996FB4E47561045CE05F17DDA38DC56B96C2B8A7467B5687B81F7AD275</t>
-  </si>
-  <si>
-    <t>A1577883C572DF0DFD1BF35D430631F3FF6B1C18C58299689FF68AE03AAEED3F</t>
-  </si>
-  <si>
-    <t>B4371CD4767C776C1795566496328CEEC90486C935211EDDB3D414A7D04F0CB9</t>
-  </si>
-  <si>
-    <t>E6C1D495833B5D8CABBEB95AE6A4D693500A70860EFB4D0419575105D7D40B63</t>
-  </si>
-  <si>
-    <t>D0D57919E441D5EBA78C11E9DBA29FA4A3AF288B2FF4D4D9214E6B9BABADD2AD</t>
-  </si>
-  <si>
-    <t>BCE0F74C64811FBA697230F988EDEE62837885590E4CAB3DD1698FCE80695C4C</t>
-  </si>
-  <si>
-    <t>2054C6F702FA3A3A623D79076EBE0F26199F781C97A903306C1E8D755198E714</t>
-  </si>
-  <si>
-    <t>2641D48E9485D8FB940EE74092AA0A36CC9D20F79CEED7ADDE3633321EF00AF1</t>
-  </si>
-  <si>
-    <t>A3B2241C4F138AE9946721312095943052F12E1C875D4A978B1A9FEEA7E064EE</t>
-  </si>
-  <si>
-    <t>E8BC05B6F19EA4CD76CCFDC3215905ABFB5DD6C602C989304FD77D13729AD881</t>
-  </si>
-  <si>
-    <t>E0EC2FD135127A61411E0126EB9ED3EB51B2C952E357E27E6CCC2B3A549C94F9</t>
-  </si>
-  <si>
-    <t>0BB757B78EFB8620BE247E120227561C216B6464FA4B495661E4E26EDA3AFE67</t>
-  </si>
-  <si>
-    <t>1413192274A75BA3800703C10C3E4FB7343498FCB585D71E7C91EB3685D2EB12</t>
-  </si>
-  <si>
-    <t>5EC20F8FF58BE2AED615216AE3C82B202610392E05D9303C84F97170305E8E0A</t>
-  </si>
-  <si>
-    <t>162C5979FF938115A7F3055EB82F1C630CB8ADFD0B7C412708554513CACE6FC3</t>
-  </si>
-  <si>
-    <t>8221F7A3F934E294A6EAA89029A60D8C72543E1B1407028293AF91C0B871F9A7</t>
-  </si>
-  <si>
-    <t>71063C97C52D1E37C9F42E3157C45CDACA02229862DAA5D8CC4FD6CBC67C767B</t>
-  </si>
-  <si>
-    <t>88461F7A03EFFFD9416386F77A8BF7F37EA42997BC7D16B6CB2644EF380728F6</t>
-  </si>
-  <si>
-    <t>DB2C9C7065A6313F88DFA2815EF31E3E88F1968B14614B35C75B1BD546F8DFA6</t>
-  </si>
-  <si>
-    <t>E24FF8EAE7E7F3A4998DD04833D70EEFA8DE144FFFDD1BB97CBFC538DCA9DC9C</t>
-  </si>
-  <si>
-    <t>1C3C0CA2FA922A5E0C889BC75186BFCAC1290DB832231100FC18ABC8D68EC76D</t>
-  </si>
-  <si>
-    <t>93F98FC58558B225B08D2ACBF9AE45C369921935124BEE359474DF1D4D01FC7B</t>
-  </si>
-  <si>
-    <t>A5D040444A531B7F8B988F88C571B8C85485CD56011CA0511C3BC273343604E9</t>
-  </si>
-  <si>
-    <t>4EF1E029A6D0612E1F0ED956C2CF0D6801F121439346352FA0050F7759D25A3F</t>
-  </si>
-  <si>
-    <t>1629D2722DCCD361AF6682E2A6589B744D3FE19163C8AE9171C26BBC604F9A7E</t>
-  </si>
-  <si>
-    <t>90C0557DE13071CE99A2787FA199FD53EE2F72C7F54CAD806D18908C6785071E</t>
+    <t>F8985856763CFA66189326CDD6146CD14934560A623132ECB1577FBAA8462186</t>
+  </si>
+  <si>
+    <t>ygt</t>
+  </si>
+  <si>
+    <t>EE55FE660EA31AAEC5756F72277825D4E86C35FB7184CA7C8455A65F884A3B41</t>
+  </si>
+  <si>
+    <t>987DE58403B78D4167FC5B69D1A67D33B929D1B956D0A2598C23223F0EB8C97A</t>
+  </si>
+  <si>
+    <t>ygt01</t>
+  </si>
+  <si>
+    <t>ygt02</t>
+  </si>
+  <si>
+    <t>juno1jxvtgas6p3qe4uh07es4qwnlx4hnylpm6akl84hp6u3sfsylpwasr6elxv</t>
+  </si>
+  <si>
+    <t>4A289A0C9E5C1340123B87873F28177CA79503792E52E54FF34CFA70B3E33C87</t>
+  </si>
+  <si>
+    <t>ibc/408AC843A9FAACB9E4755AA5132915FCE68CEB09FBC4048C1C1FFF5276271C23</t>
+  </si>
+  <si>
+    <t>7B411522638EA6A2B8E988C9AEC8E53B4007B7BB1D5B6EB77BED68FCFFDC653A</t>
+  </si>
+  <si>
+    <t>F4D7D46E1D0BE7836DEA35402E6147CB6B7E9B8860294A8D8DE340476CE65639</t>
+  </si>
+  <si>
+    <t>70657902F40C82142728223287B0E58A04BDDA44B9E407915A36E44718CCA5B7</t>
+  </si>
+  <si>
+    <t>ibc/990F52FC0A4ED7DF1AF4481BC68E329CC5A5E57D9407D8453A0C1220484F3228</t>
+  </si>
+  <si>
+    <t>ygt007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ibc/20CA1FAF20898AE46749DD4F3B054B48EEFEC95B8A0CBAFB36C5BB11A0FBABE6</t>
+  </si>
+  <si>
+    <t>ygt008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ibc/3A52E829D1039E1515F22AF4DD94920DD0D3C480333FE85D7CF3B56941972CB7</t>
+  </si>
+  <si>
+    <t>ygt009</t>
+  </si>
+  <si>
+    <t>ibc/FDA8D4C94E8C9FBECC032544747F5C3EDE95C6BD7EA258099E3D26D8BB2F1293</t>
+  </si>
+  <si>
+    <t>ygt010</t>
+  </si>
+  <si>
+    <t>ygt011</t>
+  </si>
+  <si>
+    <t>ibc/C3B7323EFEAE32CD17E273A5CDF573B7C0B51B62AEEF230BDF30EDFCA21E410C</t>
+  </si>
+  <si>
+    <t>ibc/AFB696BE6247CCC518789F4A8A7911BEEB0C91F3EDA3E4830D81B4D683375B0D</t>
+  </si>
+  <si>
+    <t>ygt012</t>
+  </si>
+  <si>
+    <t>0CB195DCE434443F9DFB7604EFFBFF27D9A50ABA236FCCD1D351BB9A6B46860A</t>
+  </si>
+  <si>
+    <t>E148C11C69C5699C0CB3365D9112A4BC78C050313FD4CBC2D912C054E8E80F1D</t>
+  </si>
+  <si>
+    <t>83DBC4A4570A0126F0E8F0C4B5F3D572602AB1B4CDA4F65A69663246AAA23A93</t>
+  </si>
+  <si>
+    <t>58BE4F893F3823D71E1750523DA4BDDDF4A28E63FA437653FE7ABF2DD98B2777</t>
+  </si>
+  <si>
+    <t>1AF7433AC0F7F34033C3D979B01C0A52A928FF3CE1C6B230FB82E2B4F62BC5D3</t>
+  </si>
+  <si>
+    <t>EAD70311351CEA4315FAC557C8BA627460C1BED7D4334C05B2CD12685E10E738</t>
+  </si>
+  <si>
+    <t>A6DAD03DDC6D368D078E9CE2EC6B9612B63DBF9B4EFF4CCDF8146259ADE87873</t>
+  </si>
+  <si>
+    <t>7AEB65C8A59784AB4FDDCE96D6CC64ED6CAB6874A9FE6190474F0EFC6CFA5C19</t>
+  </si>
+  <si>
+    <t>2EE20A45EC0B04AF7ACA9CF800A616AEC76D95667AD9413F9F13C504196C0D90</t>
+  </si>
+  <si>
+    <t>C1D91F7C12CA3D244F0F9E99502EB1D9E90EFAE594DEB53CFFD8118D68CD8F1E</t>
+  </si>
+  <si>
+    <t>181875D5C66C55105FE91DFF609BAE978E981173091C22441F3826D49E4815B6</t>
+  </si>
+  <si>
+    <t>44D5DDF3EAE1DB8A19DCE55C13957E46FE92EBD71962DC744A58FEDF70365DEF</t>
+  </si>
+  <si>
+    <t>87199A5A56F459E0E274510D15094BBD5452FF336CC0EB56D7B1AEF0EB2E103B</t>
+  </si>
+  <si>
+    <t>25C715902A0F899F345182444F86D7D2EEC92CD659672460C782AAEF0E135DE7</t>
+  </si>
+  <si>
+    <t>4D7D75966EDAFFF7450603948C200F0F9347B86CAB000FE951D5038E46EBE5BB</t>
+  </si>
+  <si>
+    <t>363152534BFC6BC66A1D30759553C56D8B54E6D29CD5E3EA00AADFDF29C202CA</t>
+  </si>
+  <si>
+    <t>ACF63011900B565C599E240BC185CC748CF28D100E864F90D185D7DCF452D221</t>
+  </si>
+  <si>
+    <t>9139F81420FE36B9827DFA4664C87E2BC4AAD1AB74D25137C020D3E16C6165CB</t>
+  </si>
+  <si>
+    <t>C3D51A0F1A8811C89AAAF98CC35CF6CEFDA03B0C1C2C3C02BA3040E076D3C838</t>
+  </si>
+  <si>
+    <t>1B10A2DD1D8A2C3D28B97F95FC85ABD6519A4EEED48CE449AF721DCBCB9DFA44</t>
+  </si>
+  <si>
+    <t>A57CDFF1FAB54E205DEB7EB052228E6815C4DAF37BBD133E05D53D972DB65E70</t>
+  </si>
+  <si>
+    <t>B2B241CCFF5E701EA0309882B5EA50D0493A1562D98A10737A6186A88CD1EA2F</t>
+  </si>
+  <si>
+    <t>C4A3A03C764F61B7CBE625657F11921D996E24485C7A056BB6D0C95D2C65C6DA</t>
+  </si>
+  <si>
+    <t>DF3E8640DA5122848DE2DC34E6D1C4BD71ABB806418B38C32B5DA42B4640FF3D</t>
+  </si>
+  <si>
+    <t>DC5F3F76E936A9BED8D727298B57023A4BA2BE02643CEA706C8D025C6814F449</t>
+  </si>
+  <si>
+    <t>F5C033A9AF322E31768C2F747982E3BD87302ADD95DA5A459CF9A790EDC7654E</t>
+  </si>
+  <si>
+    <t>DE3CEC556833379F48E8030409EC6F106AE4ED8325A9F91E60D3DE6C99D7F6A1</t>
+  </si>
+  <si>
+    <t>9FE50B93635A25A438E4F2B4E68BC04E8DB3B8D1A15B0874C597C5B28E3E4C78</t>
+  </si>
+  <si>
+    <t>5531E22985CB0B3179CCF301AB07726B52FD93DBF38F82F2086B1039A9C37AE6</t>
+  </si>
+  <si>
+    <t>25F58764183FF3891E3F82D563F5DCD524775EF2E9A23AD0FA0E7D50E06F6D44</t>
+  </si>
+  <si>
+    <t>9DFCCFC781B2EABE9578A9776F068868DD7DDB3B15859F877634B3B667FC17A4</t>
+  </si>
+  <si>
+    <t>811C9B584F28763A2170444B896A42A4EBFD35544E74870F568FA968E8BC45FA</t>
+  </si>
+  <si>
+    <t>5AF8E29AB08267F4B8CE2CE577F5AA17B52C61638918B0026FCFF6D45E2BFB6B</t>
+  </si>
+  <si>
+    <t>42E370E357D970DACBC886356102F768DA99C5E62555A6110C4ED95C9C9F64BD</t>
+  </si>
+  <si>
+    <t>6F642C6FC10382A7EE558E26072ED72C07321F8CC77A0988C066A9BC0EA6C8D2</t>
+  </si>
+  <si>
+    <t>8E212EACA1927A37D3B8CDD1410560A069C51039CF1877AF4EC005E018244EE8</t>
   </si>
 </sst>
 </file>
@@ -423,6 +414,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,8 +710,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,25 +754,25 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -796,7 +791,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +810,83 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
@@ -826,15 +897,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,26 +924,26 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,34 +954,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
+      <c r="A2" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,34 +1016,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,44 +1085,168 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>53</v>
+      <c r="A2" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1029,196 +1272,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1226,39 +1283,76 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,10 +1371,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1293,17 +1387,33 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>73</v>
+      <c r="A5" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1312,52 +1422,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,128 +1449,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1644,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,24 +1666,24 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1700,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,16 +1726,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1756,7 +1751,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,16 +1777,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1807,7 +1802,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,16 +1828,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +1853,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,16 +1880,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1910,7 +1905,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,10 +1924,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +1943,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,10 +1962,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
